--- a/res/temp_dict_order_extend_df.xlsx
+++ b/res/temp_dict_order_extend_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tools\oh\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F6D76-1DE6-4445-AC97-EDD9E49CEEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4322B3-D364-4F1B-A567-874758233949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="682">
   <si>
     <t>dict_order_extend_id</t>
   </si>
@@ -1666,9 +1666,6 @@
     <t>EQYGN</t>
   </si>
   <si>
-    <t>耳声发射</t>
-  </si>
-  <si>
     <t>ERSHENGFASHE</t>
   </si>
   <si>
@@ -1838,9 +1835,6 @@
   </si>
   <si>
     <t>XQKDXKTJCEF</t>
-  </si>
-  <si>
-    <t>布鲁菌素皮内试验</t>
   </si>
   <si>
     <t>BULUJUNSUPINEISHIYAN</t>
@@ -2064,6 +2058,17 @@
   </si>
   <si>
     <t>大关节X射线摄片检查（双肩，双肘，双膝，双髋关节）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红细胞赫恩滋小体</t>
+  </si>
+  <si>
+    <t>耳声发射</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布鲁菌素皮内试验</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2440,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP219"/>
+  <dimension ref="A1:AP220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2587,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -2662,10 +2667,10 @@
         <v>0</v>
       </c>
       <c r="AO2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AP2" t="s">
         <v>583</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
@@ -3299,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -3374,10 +3379,10 @@
         <v>0</v>
       </c>
       <c r="AO10" t="s">
+        <v>600</v>
+      </c>
+      <c r="AP10" t="s">
         <v>601</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
@@ -3388,7 +3393,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -3463,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="AO11" t="s">
+        <v>585</v>
+      </c>
+      <c r="AP11" t="s">
         <v>586</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
@@ -3477,7 +3482,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -3552,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="AO12" t="s">
+        <v>588</v>
+      </c>
+      <c r="AP12" t="s">
         <v>589</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
@@ -3566,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -3641,10 +3646,10 @@
         <v>0</v>
       </c>
       <c r="AO13" t="s">
+        <v>576</v>
+      </c>
+      <c r="AP13" t="s">
         <v>577</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
@@ -3655,7 +3660,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D14">
         <v>-1</v>
@@ -3730,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="AO14" t="s">
+        <v>579</v>
+      </c>
+      <c r="AP14" t="s">
         <v>580</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
@@ -3833,7 +3838,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D16">
         <v>-1</v>
@@ -3908,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="AO16" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AP16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
@@ -4011,7 +4016,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -4086,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="AO18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AP18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
@@ -4189,7 +4194,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D20">
         <v>-1</v>
@@ -4264,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="AO20" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AP20" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
@@ -4278,7 +4283,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -4353,10 +4358,10 @@
         <v>0</v>
       </c>
       <c r="AO21" t="s">
+        <v>591</v>
+      </c>
+      <c r="AP21" t="s">
         <v>592</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
@@ -4367,7 +4372,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -4442,10 +4447,10 @@
         <v>0</v>
       </c>
       <c r="AO22" t="s">
+        <v>594</v>
+      </c>
+      <c r="AP22" t="s">
         <v>595</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
@@ -4723,7 +4728,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -4798,10 +4803,10 @@
         <v>0</v>
       </c>
       <c r="AO26" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AP26" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
@@ -4812,7 +4817,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D27">
         <v>-1</v>
@@ -4887,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="AO27" t="s">
+        <v>551</v>
+      </c>
+      <c r="AP27" t="s">
         <v>552</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
@@ -4990,7 +4995,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D29">
         <v>-1</v>
@@ -5079,7 +5084,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D30">
         <v>-1</v>
@@ -5154,10 +5159,10 @@
         <v>0</v>
       </c>
       <c r="AO30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AP30" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
@@ -5524,7 +5529,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D35">
         <v>-1</v>
@@ -5613,7 +5618,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>548</v>
+        <v>680</v>
       </c>
       <c r="D36">
         <v>-1</v>
@@ -5688,10 +5693,10 @@
         <v>0</v>
       </c>
       <c r="AO36" t="s">
+        <v>548</v>
+      </c>
+      <c r="AP36" t="s">
         <v>549</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
@@ -7571,7 +7576,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D58">
         <v>-1</v>
@@ -7749,7 +7754,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D60">
         <v>-1</v>
@@ -13712,7 +13717,7 @@
         <v>129</v>
       </c>
       <c r="C127" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D127">
         <v>-1</v>
@@ -13787,10 +13792,10 @@
         <v>0</v>
       </c>
       <c r="AO127" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AP127" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
@@ -14335,7 +14340,7 @@
         <v>136</v>
       </c>
       <c r="C134" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D134">
         <v>-1</v>
@@ -14410,10 +14415,10 @@
         <v>0</v>
       </c>
       <c r="AO134" t="s">
+        <v>554</v>
+      </c>
+      <c r="AP134" t="s">
         <v>555</v>
-      </c>
-      <c r="AP134" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.25">
@@ -14513,7 +14518,7 @@
         <v>138</v>
       </c>
       <c r="C136" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D136">
         <v>-1</v>
@@ -14588,10 +14593,10 @@
         <v>0</v>
       </c>
       <c r="AO136" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AP136" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.25">
@@ -14602,7 +14607,7 @@
         <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D137">
         <v>-1</v>
@@ -14677,10 +14682,10 @@
         <v>0</v>
       </c>
       <c r="AO137" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AP137" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.25">
@@ -14869,7 +14874,7 @@
         <v>142</v>
       </c>
       <c r="C140" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D140">
         <v>-1</v>
@@ -14944,10 +14949,10 @@
         <v>0</v>
       </c>
       <c r="AO140" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AP140" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.25">
@@ -14958,7 +14963,7 @@
         <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D141">
         <v>-1</v>
@@ -15033,10 +15038,10 @@
         <v>0</v>
       </c>
       <c r="AO141" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AP141" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.25">
@@ -15492,7 +15497,7 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D147">
         <v>-1</v>
@@ -15567,10 +15572,10 @@
         <v>0</v>
       </c>
       <c r="AO147" t="s">
+        <v>557</v>
+      </c>
+      <c r="AP147" t="s">
         <v>558</v>
-      </c>
-      <c r="AP147" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.25">
@@ -15848,7 +15853,7 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D151">
         <v>-1</v>
@@ -15923,10 +15928,10 @@
         <v>0</v>
       </c>
       <c r="AO151" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AP151" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.25">
@@ -16382,7 +16387,7 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D157">
         <v>-1</v>
@@ -16457,10 +16462,10 @@
         <v>0</v>
       </c>
       <c r="AO157" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AP157" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.25">
@@ -16471,7 +16476,7 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D158">
         <v>-1</v>
@@ -16546,10 +16551,10 @@
         <v>0</v>
       </c>
       <c r="AO158" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AP158" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.25">
@@ -17094,7 +17099,7 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D165">
         <v>-1</v>
@@ -17169,10 +17174,10 @@
         <v>0</v>
       </c>
       <c r="AO165" t="s">
+        <v>603</v>
+      </c>
+      <c r="AP165" t="s">
         <v>604</v>
-      </c>
-      <c r="AP165" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.25">
@@ -17183,7 +17188,7 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D166">
         <v>-1</v>
@@ -17258,10 +17263,10 @@
         <v>0</v>
       </c>
       <c r="AO166" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="AP166" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.25">
@@ -17539,7 +17544,7 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D170">
         <v>-1</v>
@@ -17614,10 +17619,10 @@
         <v>0</v>
       </c>
       <c r="AO170" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AP170" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.25">
@@ -17628,7 +17633,7 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D171">
         <v>-1</v>
@@ -17703,10 +17708,10 @@
         <v>0</v>
       </c>
       <c r="AO171" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AP171" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="172" spans="1:42" x14ac:dyDescent="0.25">
@@ -17717,7 +17722,7 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D172">
         <v>-1</v>
@@ -17792,10 +17797,10 @@
         <v>0</v>
       </c>
       <c r="AO172" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AP172" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.25">
@@ -17984,7 +17989,7 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D175">
         <v>-1</v>
@@ -18059,10 +18064,10 @@
         <v>0</v>
       </c>
       <c r="AO175" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AP175" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.25">
@@ -18073,7 +18078,7 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D176">
         <v>-1</v>
@@ -18148,10 +18153,10 @@
         <v>0</v>
       </c>
       <c r="AO176" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AP176" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="177" spans="1:42" x14ac:dyDescent="0.25">
@@ -18162,7 +18167,7 @@
         <v>180</v>
       </c>
       <c r="C177" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D177">
         <v>-1</v>
@@ -18237,10 +18242,10 @@
         <v>0</v>
       </c>
       <c r="AO177" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP177" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="178" spans="1:42" x14ac:dyDescent="0.25">
@@ -18340,7 +18345,7 @@
         <v>182</v>
       </c>
       <c r="C179" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D179">
         <v>-1</v>
@@ -18415,10 +18420,10 @@
         <v>0</v>
       </c>
       <c r="AO179" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="AP179" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="180" spans="1:42" x14ac:dyDescent="0.25">
@@ -18429,7 +18434,7 @@
         <v>183</v>
       </c>
       <c r="C180" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D180">
         <v>-1</v>
@@ -18504,10 +18509,10 @@
         <v>0</v>
       </c>
       <c r="AO180" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AP180" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="181" spans="1:42" x14ac:dyDescent="0.25">
@@ -19052,7 +19057,7 @@
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D187">
         <v>-1</v>
@@ -19127,10 +19132,10 @@
         <v>0</v>
       </c>
       <c r="AO187" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AP187" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="188" spans="1:42" x14ac:dyDescent="0.25">
@@ -19141,7 +19146,7 @@
         <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D188">
         <v>-1</v>
@@ -19216,10 +19221,10 @@
         <v>0</v>
       </c>
       <c r="AO188" t="s">
+        <v>597</v>
+      </c>
+      <c r="AP188" t="s">
         <v>598</v>
-      </c>
-      <c r="AP188" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="189" spans="1:42" x14ac:dyDescent="0.25">
@@ -19408,7 +19413,7 @@
         <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D191">
         <v>-1</v>
@@ -19497,7 +19502,7 @@
         <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D192">
         <v>-1</v>
@@ -19572,10 +19577,10 @@
         <v>0</v>
       </c>
       <c r="AO192" t="s">
+        <v>567</v>
+      </c>
+      <c r="AP192" t="s">
         <v>568</v>
-      </c>
-      <c r="AP192" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="193" spans="1:42" x14ac:dyDescent="0.25">
@@ -19586,7 +19591,7 @@
         <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D193">
         <v>-1</v>
@@ -19661,10 +19666,10 @@
         <v>0</v>
       </c>
       <c r="AO193" t="s">
+        <v>570</v>
+      </c>
+      <c r="AP193" t="s">
         <v>571</v>
-      </c>
-      <c r="AP193" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="194" spans="1:42" x14ac:dyDescent="0.25">
@@ -19675,7 +19680,7 @@
         <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D194">
         <v>-1</v>
@@ -19750,10 +19755,10 @@
         <v>0</v>
       </c>
       <c r="AO194" t="s">
+        <v>573</v>
+      </c>
+      <c r="AP194" t="s">
         <v>574</v>
-      </c>
-      <c r="AP194" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="195" spans="1:42" x14ac:dyDescent="0.25">
@@ -19764,7 +19769,7 @@
         <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D195">
         <v>-1</v>
@@ -19839,10 +19844,10 @@
         <v>0</v>
       </c>
       <c r="AO195" t="s">
+        <v>560</v>
+      </c>
+      <c r="AP195" t="s">
         <v>561</v>
-      </c>
-      <c r="AP195" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="196" spans="1:42" x14ac:dyDescent="0.25">
@@ -19853,7 +19858,7 @@
         <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D196">
         <v>-1</v>
@@ -19928,10 +19933,10 @@
         <v>0</v>
       </c>
       <c r="AO196" t="s">
+        <v>563</v>
+      </c>
+      <c r="AP196" t="s">
         <v>564</v>
-      </c>
-      <c r="AP196" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="197" spans="1:42" x14ac:dyDescent="0.25">
@@ -21811,7 +21816,7 @@
         <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D218">
         <v>-1</v>
@@ -21900,7 +21905,7 @@
         <v>222</v>
       </c>
       <c r="C219" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D219">
         <v>-1</v>
@@ -21978,6 +21983,95 @@
         <v>185</v>
       </c>
       <c r="AP219" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="220" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>223</v>
+      </c>
+      <c r="B220">
+        <v>223</v>
+      </c>
+      <c r="C220" t="s">
+        <v>679</v>
+      </c>
+      <c r="D220">
+        <v>-1</v>
+      </c>
+      <c r="F220">
+        <v>91</v>
+      </c>
+      <c r="G220" t="s">
+        <v>43</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+      <c r="AC220">
+        <v>10033001</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>10033</v>
+      </c>
+      <c r="AF220">
+        <v>4.7962606441372068E+18</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH220" s="2">
+        <v>44874.069884097233</v>
+      </c>
+      <c r="AI220">
+        <v>4.7962606441372068E+18</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK220" s="2">
+        <v>44874.069884097233</v>
+      </c>
+      <c r="AL220">
+        <v>0</v>
+      </c>
+      <c r="AM220">
+        <v>0</v>
+      </c>
+      <c r="AN220">
+        <v>0</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>185</v>
+      </c>
+      <c r="AP220" t="s">
         <v>186</v>
       </c>
     </row>

--- a/res/temp_dict_order_extend_df.xlsx
+++ b/res/temp_dict_order_extend_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP233"/>
+  <dimension ref="A1:AP234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27097,6 +27097,120 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B234" t="n">
+        <v>238</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>咽喉镜检查</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="n">
+        <v>91</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y234" t="inlineStr"/>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+      <c r="AB234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG234" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH234" s="2" t="n">
+        <v>44885.06988408565</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ234" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK234" s="2" t="n">
+        <v>44885.06988408565</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO234" t="inlineStr">
+        <is>
+          <t>YANHOUJINGJIANCHA</t>
+        </is>
+      </c>
+      <c r="AP234" t="inlineStr">
+        <is>
+          <t>YHJJC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/res/temp_dict_order_extend_df.xlsx
+++ b/res/temp_dict_order_extend_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP234"/>
+  <dimension ref="A1:AP243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27211,6 +27211,1032 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B235" t="n">
+        <v>239</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>眼科检查（色觉、视力、晶体裂隙灯检查、玻璃体、眼底）</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="n">
+        <v>91</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y235" t="inlineStr"/>
+      <c r="Z235" t="inlineStr"/>
+      <c r="AA235" t="inlineStr"/>
+      <c r="AB235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG235" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH235" s="2" t="n">
+        <v>44885.06988408565</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ235" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK235" s="2" t="n">
+        <v>44885.06988408565</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO235" t="inlineStr">
+        <is>
+          <t>YANKEJIANCHASEJUESHILIJINGTILIEXIDENGJIANCHABOLITIYANDI</t>
+        </is>
+      </c>
+      <c r="AP235" t="inlineStr">
+        <is>
+          <t>YKJCSJSLJTLXDJCBLTYD</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B236" t="n">
+        <v>240</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>血常规和白细胞分类</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="n">
+        <v>91</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y236" t="inlineStr"/>
+      <c r="Z236" t="inlineStr"/>
+      <c r="AA236" t="inlineStr"/>
+      <c r="AB236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG236" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH236" s="2" t="n">
+        <v>44886.06988408565</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ236" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK236" s="2" t="n">
+        <v>44886.06988408565</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO236" t="inlineStr">
+        <is>
+          <t>XIECHANGGUIHEBAIXIBAOFENLEI</t>
+        </is>
+      </c>
+      <c r="AP236" t="inlineStr">
+        <is>
+          <t>XCGHBXBFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B237" t="n">
+        <v>241</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>肾功能检查</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="n">
+        <v>91</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y237" t="inlineStr"/>
+      <c r="Z237" t="inlineStr"/>
+      <c r="AA237" t="inlineStr"/>
+      <c r="AB237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG237" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH237" s="2" t="n">
+        <v>44887.06988408565</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ237" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK237" s="2" t="n">
+        <v>44887.06988408565</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO237" t="inlineStr">
+        <is>
+          <t>SHENGONGNENGJIANCHA</t>
+        </is>
+      </c>
+      <c r="AP237" t="inlineStr">
+        <is>
+          <t>SGNJC</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B238" t="n">
+        <v>242</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>外周血淋巴细胞染色体畸变分析</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="n">
+        <v>91</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y238" t="inlineStr"/>
+      <c r="Z238" t="inlineStr"/>
+      <c r="AA238" t="inlineStr"/>
+      <c r="AB238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG238" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH238" s="2" t="n">
+        <v>44888.06988408565</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ238" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK238" s="2" t="n">
+        <v>44888.06988408565</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO238" t="inlineStr">
+        <is>
+          <t>WAIZHOUXIELINBAXIBAORANSETIJIBIANFENXI</t>
+        </is>
+      </c>
+      <c r="AP238" t="inlineStr">
+        <is>
+          <t>WZXLBXBRSTJBFX</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B239" t="n">
+        <v>243</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>胸部X线检查</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="n">
+        <v>91</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="inlineStr"/>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y239" t="inlineStr"/>
+      <c r="Z239" t="inlineStr"/>
+      <c r="AA239" t="inlineStr"/>
+      <c r="AB239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG239" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH239" s="2" t="n">
+        <v>44889.06988408565</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ239" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK239" s="2" t="n">
+        <v>44889.06988408565</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO239" t="inlineStr">
+        <is>
+          <t>XIONGBUXXIANJIANCHA</t>
+        </is>
+      </c>
+      <c r="AP239" t="inlineStr">
+        <is>
+          <t>XBXXJC</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B240" t="n">
+        <v>244</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>腹部B超</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="n">
+        <v>91</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="inlineStr"/>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y240" t="inlineStr"/>
+      <c r="Z240" t="inlineStr"/>
+      <c r="AA240" t="inlineStr"/>
+      <c r="AB240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG240" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH240" s="2" t="n">
+        <v>44890.06988408565</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ240" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK240" s="2" t="n">
+        <v>44890.06988408565</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO240" t="inlineStr">
+        <is>
+          <t>FUBUBCHAO</t>
+        </is>
+      </c>
+      <c r="AP240" t="inlineStr">
+        <is>
+          <t>FBBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B241" t="n">
+        <v>245</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>外周血淋巴细胞微核试验</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="n">
+        <v>91</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y241" t="inlineStr"/>
+      <c r="Z241" t="inlineStr"/>
+      <c r="AA241" t="inlineStr"/>
+      <c r="AB241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG241" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH241" s="2" t="n">
+        <v>44891.06988408565</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ241" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK241" s="2" t="n">
+        <v>44891.06988408565</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO241" t="inlineStr">
+        <is>
+          <t>WAIZHOUXIELINBAXIBAOWEIHESHIYAN</t>
+        </is>
+      </c>
+      <c r="AP241" t="inlineStr">
+        <is>
+          <t>WZXLBXBWHSY</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B242" t="n">
+        <v>246</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>血常规和白细胞分类（连续取样）</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="n">
+        <v>91</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y242" t="inlineStr"/>
+      <c r="Z242" t="inlineStr"/>
+      <c r="AA242" t="inlineStr"/>
+      <c r="AB242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG242" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH242" s="2" t="n">
+        <v>44892.06988408565</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ242" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK242" s="2" t="n">
+        <v>44892.06988408565</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO242" t="inlineStr">
+        <is>
+          <t>XIECHANGGUIHEBAIXIBAOFENLEILIANXUQUYANG</t>
+        </is>
+      </c>
+      <c r="AP242" t="inlineStr">
+        <is>
+          <t>XCGHBXBFLLXQY</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B243" t="n">
+        <v>247</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>胸部X线摄影（在留取细胞遗传学检查所需血样后）</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="n">
+        <v>91</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y243" t="inlineStr"/>
+      <c r="Z243" t="inlineStr"/>
+      <c r="AA243" t="inlineStr"/>
+      <c r="AB243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG243" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH243" s="2" t="n">
+        <v>44893.06988408565</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ243" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK243" s="2" t="n">
+        <v>44893.06988408565</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO243" t="inlineStr">
+        <is>
+          <t>XIONGBUXXIANSHEYINGZAILIUQUXIBAOYICHUANXUEJIANCHASUOXUXIEYANGHOU</t>
+        </is>
+      </c>
+      <c r="AP243" t="inlineStr">
+        <is>
+          <t>XBXXSYZLQXBYCXJCSXXYH</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/res/temp_dict_order_extend_df.xlsx
+++ b/res/temp_dict_order_extend_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP243"/>
+  <dimension ref="A1:AP252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28237,6 +28237,1032 @@
         </is>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B244" t="n">
+        <v>248</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>耳鼻喉科、视野（核电厂放射工作人员）</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="n">
+        <v>91</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y244" t="inlineStr"/>
+      <c r="Z244" t="inlineStr"/>
+      <c r="AA244" t="inlineStr"/>
+      <c r="AB244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG244" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH244" s="2" t="n">
+        <v>44894.06988408565</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ244" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK244" s="2" t="n">
+        <v>44894.06988408565</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO244" t="inlineStr">
+        <is>
+          <t>ERBIHOUKESHIYEHEDIANCHANGFANGSHEGONGZUORENYUAN</t>
+        </is>
+      </c>
+      <c r="AP244" t="inlineStr">
+        <is>
+          <t>EBHKSYHDCFSGZRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B245" t="n">
+        <v>249</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>心理测试（如核电厂操纵员和高级操纵员）</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="n">
+        <v>91</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y245" t="inlineStr"/>
+      <c r="Z245" t="inlineStr"/>
+      <c r="AA245" t="inlineStr"/>
+      <c r="AB245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG245" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH245" s="2" t="n">
+        <v>44895.06988408565</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ245" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK245" s="2" t="n">
+        <v>44895.06988408565</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO245" t="inlineStr">
+        <is>
+          <t>XINLICESHIRUHEDIANCHANGCAOZONGYUANHEGAOJICAOZONGYUAN</t>
+        </is>
+      </c>
+      <c r="AP245" t="inlineStr">
+        <is>
+          <t>XLCSRHDCCZYHGJCZY</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B246" t="n">
+        <v>250</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>甲状腺功能</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="n">
+        <v>91</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y246" t="inlineStr"/>
+      <c r="Z246" t="inlineStr"/>
+      <c r="AA246" t="inlineStr"/>
+      <c r="AB246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG246" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH246" s="2" t="n">
+        <v>44896.06988408565</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ246" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK246" s="2" t="n">
+        <v>44896.06988408565</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO246" t="inlineStr">
+        <is>
+          <t>JIAZHUANGXIANGONGNENG</t>
+        </is>
+      </c>
+      <c r="AP246" t="inlineStr">
+        <is>
+          <t>JZXGN</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B247" t="n">
+        <v>251</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>肺功能（放射性矿山工作人员，接受内照射、需要穿戴呼吸防护装置的人员）</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="n">
+        <v>91</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y247" t="inlineStr"/>
+      <c r="Z247" t="inlineStr"/>
+      <c r="AA247" t="inlineStr"/>
+      <c r="AB247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG247" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH247" s="2" t="n">
+        <v>44897.06988408565</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ247" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK247" s="2" t="n">
+        <v>44897.06988408565</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO247" t="inlineStr">
+        <is>
+          <t>FEIGONGNENGFANGSHEXINGKUANGSHANGONGZUORENYUAN，JIESHOUNEIZHAOSHEXUYAOCHUANDAIHUXIFANGHUZHUANGZHIDERENYUAN</t>
+        </is>
+      </c>
+      <c r="AP247" t="inlineStr">
+        <is>
+          <t>FGNFSXKSGZRY，JSNZSXYCDHXFHZZDRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B248" t="n">
+        <v>252</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>血清睾丸酮</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="n">
+        <v>91</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr"/>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y248" t="inlineStr"/>
+      <c r="Z248" t="inlineStr"/>
+      <c r="AA248" t="inlineStr"/>
+      <c r="AB248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG248" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH248" s="2" t="n">
+        <v>44898.06988408565</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ248" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK248" s="2" t="n">
+        <v>44898.06988408565</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO248" t="inlineStr">
+        <is>
+          <t>XIEQINGGAOWANTONG</t>
+        </is>
+      </c>
+      <c r="AP248" t="inlineStr">
+        <is>
+          <t>XQGWT</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B249" t="n">
+        <v>253</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>痰细胞学检查和/或肺功能检查（放射性矿山工作人员，接受内照射、需要穿戴呼吸防护装置的人员）</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="n">
+        <v>91</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y249" t="inlineStr"/>
+      <c r="Z249" t="inlineStr"/>
+      <c r="AA249" t="inlineStr"/>
+      <c r="AB249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG249" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH249" s="2" t="n">
+        <v>44899.06988408565</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ249" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK249" s="2" t="n">
+        <v>44899.06988408565</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO249" t="inlineStr">
+        <is>
+          <t>TANXIBAOXUEJIANCHAHE/HUOFEIGONGNENGJIANCHAFANGSHEXINGKUANGSHANGONGZUORENYUAN，JIESHOUNEIZHAOSHEXUYAOCHUANDAIHUXIFANGHUZHUANGZHIDERENYUAN</t>
+        </is>
+      </c>
+      <c r="AP249" t="inlineStr">
+        <is>
+          <t>TXBXJCH/HFGNJCFSXKSGZRY，JSNZSXYCDHXFHZZDRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B250" t="n">
+        <v>254</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>使用全身计数器进行体内放射性核素滞留量的检测（从事非密封源操作的人员）</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="n">
+        <v>91</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>1</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" t="inlineStr"/>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr"/>
+      <c r="V250" t="inlineStr"/>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y250" t="inlineStr"/>
+      <c r="Z250" t="inlineStr"/>
+      <c r="AA250" t="inlineStr"/>
+      <c r="AB250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG250" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH250" s="2" t="n">
+        <v>44900.06988408565</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ250" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK250" s="2" t="n">
+        <v>44900.06988408565</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO250" t="inlineStr">
+        <is>
+          <t>SHIYONGQUANSHENJISHUQIJINXINGTINEIFANGSHEXINGHESUZHILIULIANGDEJIANCECONGSHIFEIMIFENGYUANCAOZUODERENYUAN</t>
+        </is>
+      </c>
+      <c r="AP250" t="inlineStr">
+        <is>
+          <t>SYQSJSQJXTNFSXHSZLLDJCCSFMFYCZDRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B251" t="n">
+        <v>255</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>心理测试（核电厂操纵员和高级操纵员）</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="n">
+        <v>91</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
+      <c r="S251" t="inlineStr"/>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr"/>
+      <c r="V251" t="inlineStr"/>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y251" t="inlineStr"/>
+      <c r="Z251" t="inlineStr"/>
+      <c r="AA251" t="inlineStr"/>
+      <c r="AB251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG251" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH251" s="2" t="n">
+        <v>44901.06988408565</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ251" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK251" s="2" t="n">
+        <v>44901.06988408565</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO251" t="inlineStr">
+        <is>
+          <t>XINLICESHIHEDIANCHANGCAOZONGYUANHEGAOJICAOZONGYUAN</t>
+        </is>
+      </c>
+      <c r="AP251" t="inlineStr">
+        <is>
+          <t>XLCSHDCCZYHGJCZY</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B252" t="n">
+        <v>256</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>使用全身计数器进行体内放射性核素滞留量的检测（从事非密封源操作的员）</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="n">
+        <v>91</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>健康管理中心</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="inlineStr"/>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y252" t="inlineStr"/>
+      <c r="Z252" t="inlineStr"/>
+      <c r="AA252" t="inlineStr"/>
+      <c r="AB252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>10033001</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>10033</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>4.796260644137207e+18</v>
+      </c>
+      <c r="AG252" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AH252" s="2" t="n">
+        <v>44902.06988408565</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>4.79626064413721e+18</v>
+      </c>
+      <c r="AJ252" t="inlineStr">
+        <is>
+          <t>众阳健康管理员</t>
+        </is>
+      </c>
+      <c r="AK252" s="2" t="n">
+        <v>44902.06988408565</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO252" t="inlineStr">
+        <is>
+          <t>SHIYONGQUANSHENJISHUQIJINXINGTINEIFANGSHEXINGHESUZHILIULIANGDEJIANCECONGSHIFEIMIFENGYUANCAOZUODEYUAN</t>
+        </is>
+      </c>
+      <c r="AP252" t="inlineStr">
+        <is>
+          <t>SYQSJSQJXTNFSXHSZLLDJCCSFMFYCZDY</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
